--- a/bom/bom.xlsx
+++ b/bom/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\upa-dip\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B96282A-8C08-4528-8537-355B1E9B29D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{961AE543-F1C1-46BD-9F1A-D1DEECB1A79B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseList" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>UPA-DIP-V2</t>
   </si>
   <si>
-    <t>15:30</t>
+    <t>21:44</t>
   </si>
   <si>
     <t>Designator</t>
@@ -53,10 +53,10 @@
     <t>C2, C4</t>
   </si>
   <si>
-    <t>JP1, JP2</t>
-  </si>
-  <si>
-    <t>R1</t>
+    <t>J2, J3</t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R5</t>
   </si>
   <si>
     <t>R2</t>
@@ -68,10 +68,10 @@
     <t>B1</t>
   </si>
   <si>
-    <t>JP3</t>
-  </si>
-  <si>
-    <t>LCD1</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J4</t>
   </si>
   <si>
     <t>U1</t>
@@ -104,12 +104,12 @@
     <t>N-GMS-NO-PINS</t>
   </si>
   <si>
+    <t>LCD MODULE SIL</t>
+  </si>
+  <si>
     <t>HEADER_5</t>
   </si>
   <si>
-    <t>LCD MODULE SIL</t>
-  </si>
-  <si>
     <t>ATmega328PU</t>
   </si>
   <si>
@@ -131,10 +131,10 @@
     <t>BUTTON_6X6mm</t>
   </si>
   <si>
+    <t>1X14-FEMALE</t>
+  </si>
+  <si>
     <t>1X05</t>
-  </si>
-  <si>
-    <t>1X14-FEMALE</t>
   </si>
   <si>
     <t>DIL28-300wSOCKET</t>
@@ -866,7 +866,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
